--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_10_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/0/Output_10_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>493487.9612745364</v>
+        <v>493267.35342503</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244259.595196078</v>
+        <v>244259.5951960774</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>9.954442416103369</v>
+        <v>7.689056482852862</v>
       </c>
       <c r="F11" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="G11" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="H11" t="n">
-        <v>7.689056482852529</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1406,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1483482279417103</v>
+        <v>0.1483482279417672</v>
       </c>
       <c r="P11" t="n">
-        <v>6.824007688654262</v>
+        <v>6.824007688654319</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6826295890904248</v>
+        <v>0.6826295890904817</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
     </row>
     <row r="12">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.954442416103369</v>
+        <v>7.689056482852493</v>
       </c>
       <c r="F14" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="G14" t="n">
-        <v>7.68905648285229</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="H14" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.148348227941888</v>
+        <v>0.1483482279417743</v>
       </c>
       <c r="P14" t="n">
-        <v>6.824007688654433</v>
+        <v>6.824007688654319</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.6826295890905953</v>
+        <v>0.6826295890904817</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103468</v>
       </c>
     </row>
     <row r="15">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>10.22716416676025</v>
+        <v>10.2271641667603</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.601546259976487</v>
+        <v>5.601546259976558</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16.16116226507125</v>
+        <v>16.16116226507114</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10.23025679607269</v>
+        <v>10.23025679607258</v>
       </c>
       <c r="F20" t="n">
-        <v>16.16116226507031</v>
+        <v>16.16116226507108</v>
       </c>
       <c r="G20" t="n">
-        <v>16.16116226507031</v>
+        <v>16.16116226507108</v>
       </c>
       <c r="H20" t="n">
-        <v>16.16116226507031</v>
+        <v>16.16116226507108</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>10.22716416676036</v>
+        <v>10.22716416676025</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>5.601546259976601</v>
+        <v>5.601546259976487</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.16116226507031</v>
+        <v>16.16116226507108</v>
       </c>
     </row>
     <row r="21">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.34157517596236</v>
+        <v>14.34157517596219</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.410669706963802</v>
+        <v>8.410669706963631</v>
       </c>
       <c r="F23" t="n">
         <v>31.18155298684076</v>
@@ -2333,7 +2333,7 @@
         <v>31.18155298684076</v>
       </c>
       <c r="H23" t="n">
-        <v>26.91487860438292</v>
+        <v>26.91487860438275</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8.407577077651467</v>
+        <v>8.407577077651297</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>3.781959170867708</v>
+        <v>3.781959170867538</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14.3415751759623</v>
+        <v>14.34157517596236</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.410669706963745</v>
+        <v>8.410669706963802</v>
       </c>
       <c r="F26" t="n">
         <v>31.18155298684076</v>
@@ -2570,7 +2570,7 @@
         <v>31.18155298684076</v>
       </c>
       <c r="H26" t="n">
-        <v>26.91487860438286</v>
+        <v>26.91487860438292</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>8.40757707765141</v>
+        <v>8.407577077651467</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>3.781959170867651</v>
+        <v>3.781959170867708</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.1815529868407</v>
+        <v>31.18155298684076</v>
       </c>
     </row>
     <row r="27">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14.3415751759623</v>
+        <v>14.34157517596236</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.410669706963745</v>
+        <v>8.410669706963802</v>
       </c>
       <c r="F29" t="n">
-        <v>31.1815529868407</v>
+        <v>31.18155298684076</v>
       </c>
       <c r="G29" t="n">
-        <v>31.1815529868407</v>
+        <v>31.18155298684076</v>
       </c>
       <c r="H29" t="n">
-        <v>26.91487860438286</v>
+        <v>26.91487860438292</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>8.40757707765141</v>
+        <v>8.407577077651467</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.781959170867651</v>
+        <v>3.781959170867708</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.1815529868407</v>
+        <v>31.18155298684076</v>
       </c>
     </row>
     <row r="30">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.35235287977076</v>
+        <v>13.35235287977065</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,16 +3035,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.421447410772203</v>
+        <v>7.421447410772089</v>
       </c>
       <c r="F32" t="n">
-        <v>47.3427152519119</v>
+        <v>47.34271525191195</v>
       </c>
       <c r="G32" t="n">
-        <v>47.3427152519119</v>
+        <v>47.34271525191195</v>
       </c>
       <c r="H32" t="n">
-        <v>25.92565630819132</v>
+        <v>25.92565630819121</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.418354781459868</v>
+        <v>7.418354781459755</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.792736874676109</v>
+        <v>2.792736874675995</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>30.19233069064916</v>
+        <v>30.19233069064904</v>
       </c>
     </row>
     <row r="33">
@@ -3275,10 +3275,10 @@
         <v>7.421447410772089</v>
       </c>
       <c r="F35" t="n">
-        <v>37.38827283580853</v>
+        <v>37.38827283580804</v>
       </c>
       <c r="G35" t="n">
-        <v>37.38827283580853</v>
+        <v>37.38827283580804</v>
       </c>
       <c r="H35" t="n">
         <v>25.92565630819119</v>
@@ -3512,10 +3512,10 @@
         <v>8.030757324419085</v>
       </c>
       <c r="F38" t="n">
-        <v>37.38827283580853</v>
+        <v>37.38827283580849</v>
       </c>
       <c r="G38" t="n">
-        <v>37.38827283580853</v>
+        <v>37.38827283580849</v>
       </c>
       <c r="H38" t="n">
         <v>26.5349662218382</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14.34157517596236</v>
+        <v>14.3415751759623</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>8.410669706963802</v>
+        <v>8.410669706963745</v>
       </c>
       <c r="F41" t="n">
-        <v>31.18155298684076</v>
+        <v>31.1815529868407</v>
       </c>
       <c r="G41" t="n">
-        <v>31.18155298684076</v>
+        <v>31.1815529868407</v>
       </c>
       <c r="H41" t="n">
-        <v>26.91487860438292</v>
+        <v>26.91487860438286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>8.407577077651464</v>
+        <v>8.40757707765141</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>3.781959170867708</v>
+        <v>3.781959170867651</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.18155298684076</v>
+        <v>31.1815529868407</v>
       </c>
     </row>
     <row r="42">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.34157517596213</v>
+        <v>14.34157517596236</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.410669706963574</v>
+        <v>8.410669706963802</v>
       </c>
       <c r="F44" t="n">
-        <v>31.1815529868422</v>
+        <v>31.1815529868407</v>
       </c>
       <c r="G44" t="n">
-        <v>31.1815529868422</v>
+        <v>31.1815529868407</v>
       </c>
       <c r="H44" t="n">
-        <v>26.91487860438269</v>
+        <v>26.91487860438292</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>8.40757707765124</v>
+        <v>8.407577077651467</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>3.781959170867481</v>
+        <v>3.781959170867708</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.1815529868422</v>
+        <v>31.1815529868407</v>
       </c>
     </row>
     <row r="45">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.01826014795171</v>
+        <v>19.01826014795268</v>
       </c>
       <c r="C11" t="n">
-        <v>28.87315813989404</v>
+        <v>28.87315813989556</v>
       </c>
       <c r="D11" t="n">
-        <v>38.72805613183638</v>
+        <v>38.72805613183844</v>
       </c>
       <c r="E11" t="n">
-        <v>28.67306379233803</v>
+        <v>30.96133241178503</v>
       </c>
       <c r="F11" t="n">
-        <v>18.61807145283968</v>
+        <v>20.90634007228613</v>
       </c>
       <c r="G11" t="n">
-        <v>8.563079113341329</v>
+        <v>10.85134773278722</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="I11" t="n">
-        <v>7.296454416659616</v>
+        <v>7.296454416659533</v>
       </c>
       <c r="J11" t="n">
-        <v>17.15135240860195</v>
+        <v>7.296454416659533</v>
       </c>
       <c r="K11" t="n">
-        <v>25.10627561076672</v>
+        <v>15.25137761882422</v>
       </c>
       <c r="L11" t="n">
-        <v>15.05128327126831</v>
+        <v>5.196385279325384</v>
       </c>
       <c r="M11" t="n">
-        <v>15.05128327126831</v>
+        <v>5.196385279325384</v>
       </c>
       <c r="N11" t="n">
-        <v>17.9332981510014</v>
+        <v>8.07840015905839</v>
       </c>
       <c r="O11" t="n">
-        <v>17.78345145611078</v>
+        <v>7.928553464167692</v>
       </c>
       <c r="P11" t="n">
-        <v>10.89051439686398</v>
+        <v>1.035616404920576</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.55771077834087</v>
+        <v>1.702812786397431</v>
       </c>
       <c r="R11" t="n">
-        <v>11.55771077834087</v>
+        <v>4.428670682862721</v>
       </c>
       <c r="S11" t="n">
-        <v>20.1079736805288</v>
+        <v>14.2835686748056</v>
       </c>
       <c r="T11" t="n">
-        <v>20.1079736805288</v>
+        <v>24.13846666674795</v>
       </c>
       <c r="U11" t="n">
-        <v>20.1079736805288</v>
+        <v>24.13846666674795</v>
       </c>
       <c r="V11" t="n">
-        <v>29.96287167247114</v>
+        <v>33.99336465869082</v>
       </c>
       <c r="W11" t="n">
-        <v>39.81776966441348</v>
+        <v>39.81776966441566</v>
       </c>
       <c r="X11" t="n">
-        <v>39.12824482694842</v>
+        <v>39.12824482695049</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.07325248745006</v>
+        <v>29.07325248745159</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="R12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="X12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932883133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.01826014795148</v>
+        <v>19.01826014795179</v>
       </c>
       <c r="C14" t="n">
-        <v>28.87315813989381</v>
+        <v>28.87315813989423</v>
       </c>
       <c r="D14" t="n">
-        <v>38.72805613183615</v>
+        <v>38.72805613183666</v>
       </c>
       <c r="E14" t="n">
-        <v>28.67306379233779</v>
+        <v>30.96133241178364</v>
       </c>
       <c r="F14" t="n">
-        <v>18.61807145283944</v>
+        <v>20.90634007228518</v>
       </c>
       <c r="G14" t="n">
-        <v>10.85134773278662</v>
+        <v>10.85134773278673</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="I14" t="n">
-        <v>7.296454416659502</v>
+        <v>7.296454416658921</v>
       </c>
       <c r="J14" t="n">
-        <v>17.15135240860184</v>
+        <v>17.15135240860135</v>
       </c>
       <c r="K14" t="n">
-        <v>25.10627561076637</v>
+        <v>25.10627561076601</v>
       </c>
       <c r="L14" t="n">
-        <v>15.05128327126802</v>
+        <v>15.05128327126755</v>
       </c>
       <c r="M14" t="n">
-        <v>15.88155603379976</v>
+        <v>15.88155603379969</v>
       </c>
       <c r="N14" t="n">
-        <v>15.88155603379976</v>
+        <v>15.88155603379969</v>
       </c>
       <c r="O14" t="n">
-        <v>15.73170933890897</v>
+        <v>15.73170933890901</v>
       </c>
       <c r="P14" t="n">
-        <v>8.838772279662066</v>
+        <v>8.838772279662352</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.838772279662066</v>
+        <v>9.505968661139207</v>
       </c>
       <c r="R14" t="n">
-        <v>11.56463017612725</v>
+        <v>9.505968661139207</v>
       </c>
       <c r="S14" t="n">
-        <v>11.56463017612725</v>
+        <v>19.36086665308164</v>
       </c>
       <c r="T14" t="n">
-        <v>20.1079736805288</v>
+        <v>29.21576464502407</v>
       </c>
       <c r="U14" t="n">
-        <v>20.1079736805288</v>
+        <v>29.96287167247144</v>
       </c>
       <c r="V14" t="n">
-        <v>29.96287167247114</v>
+        <v>29.96287167247144</v>
       </c>
       <c r="W14" t="n">
-        <v>39.81776966441348</v>
+        <v>39.81776966441387</v>
       </c>
       <c r="X14" t="n">
-        <v>39.12824482694819</v>
+        <v>39.1282448269487</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.07325248744984</v>
+        <v>29.07325248745025</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="C15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="D15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="E15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="F15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="G15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="H15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="I15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="J15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="K15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="L15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="M15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="N15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="O15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="P15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="R15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="S15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="T15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="U15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="V15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="W15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="X15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="Y15" t="n">
-        <v>39.81776966441348</v>
+        <v>0.7963553932882775</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="P16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7963553932882695</v>
+        <v>0.7963553932882775</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>31.99583640357518</v>
       </c>
       <c r="C17" t="n">
-        <v>44.600154047155</v>
+        <v>44.60015404715502</v>
       </c>
       <c r="D17" t="n">
-        <v>60.59970468957543</v>
+        <v>60.59970468957545</v>
       </c>
       <c r="E17" t="n">
-        <v>50.2661119662698</v>
+        <v>50.26611196626977</v>
       </c>
       <c r="F17" t="n">
-        <v>33.94170563791511</v>
+        <v>33.94170563791508</v>
       </c>
       <c r="G17" t="n">
         <v>17.61729930956038</v>
@@ -5510,46 +5510,46 @@
         <v>1.292892981205691</v>
       </c>
       <c r="I17" t="n">
-        <v>9.003228818967962</v>
+        <v>9.003228818967964</v>
       </c>
       <c r="J17" t="n">
-        <v>25.00277946138835</v>
+        <v>25.00277946138848</v>
       </c>
       <c r="K17" t="n">
-        <v>25.00277946138835</v>
+        <v>34.16793947794418</v>
       </c>
       <c r="L17" t="n">
-        <v>14.67231060607497</v>
+        <v>23.83747062263064</v>
       </c>
       <c r="M17" t="n">
-        <v>16.71282018299826</v>
+        <v>23.83747062263064</v>
       </c>
       <c r="N17" t="n">
-        <v>16.71282018299826</v>
+        <v>23.83747062263064</v>
       </c>
       <c r="O17" t="n">
-        <v>16.71282018299826</v>
+        <v>23.83747062263064</v>
       </c>
       <c r="P17" t="n">
-        <v>11.05469264766839</v>
+        <v>18.17934308730078</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.05469264766839</v>
+        <v>18.17934308730078</v>
       </c>
       <c r="R17" t="n">
-        <v>11.05469264766839</v>
+        <v>18.17934308730078</v>
       </c>
       <c r="S17" t="n">
-        <v>11.05469264766839</v>
+        <v>34.17889372972121</v>
       </c>
       <c r="T17" t="n">
-        <v>16.64599713302327</v>
+        <v>34.17889372972121</v>
       </c>
       <c r="U17" t="n">
-        <v>32.6455477754437</v>
+        <v>34.17889372972121</v>
       </c>
       <c r="V17" t="n">
-        <v>48.64509841786413</v>
+        <v>50.17844437214166</v>
       </c>
       <c r="W17" t="n">
         <v>64.64464906028456</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.99583640357255</v>
+        <v>28.60060340473443</v>
       </c>
       <c r="C20" t="n">
-        <v>44.60015404715361</v>
+        <v>44.6001540471548</v>
       </c>
       <c r="D20" t="n">
-        <v>60.59970468957322</v>
+        <v>60.59970468957517</v>
       </c>
       <c r="E20" t="n">
-        <v>50.26611196626747</v>
+        <v>50.26611196626956</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94170563791363</v>
+        <v>33.94170563791494</v>
       </c>
       <c r="G20" t="n">
-        <v>17.61729930955947</v>
+        <v>17.61729930956031</v>
       </c>
       <c r="H20" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="I20" t="n">
-        <v>1.292892981205624</v>
+        <v>9.003228818967994</v>
       </c>
       <c r="J20" t="n">
-        <v>17.29244362362523</v>
+        <v>25.00277946138836</v>
       </c>
       <c r="K20" t="n">
-        <v>26.45760364018083</v>
+        <v>34.16793947794412</v>
       </c>
       <c r="L20" t="n">
-        <v>16.12713478486735</v>
+        <v>23.83747062263077</v>
       </c>
       <c r="M20" t="n">
-        <v>16.12713478486735</v>
+        <v>23.83747062263077</v>
       </c>
       <c r="N20" t="n">
-        <v>16.12713478486735</v>
+        <v>23.83747062263077</v>
       </c>
       <c r="O20" t="n">
-        <v>17.19050685359595</v>
+        <v>24.90084269135946</v>
       </c>
       <c r="P20" t="n">
-        <v>11.53237931826596</v>
+        <v>19.2427151560296</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.53237931826596</v>
+        <v>19.2427151560296</v>
       </c>
       <c r="R20" t="n">
-        <v>15.46847402912219</v>
+        <v>19.2427151560296</v>
       </c>
       <c r="S20" t="n">
-        <v>15.46847402912219</v>
+        <v>19.2427151560296</v>
       </c>
       <c r="T20" t="n">
-        <v>16.64599713302242</v>
+        <v>28.71588125541112</v>
       </c>
       <c r="U20" t="n">
-        <v>32.64554777544201</v>
+        <v>44.71543189783149</v>
       </c>
       <c r="V20" t="n">
-        <v>48.64509841786162</v>
+        <v>60.71498254025228</v>
       </c>
       <c r="W20" t="n">
-        <v>64.64464906028122</v>
+        <v>60.71498254025228</v>
       </c>
       <c r="X20" t="n">
-        <v>64.64464906028122</v>
+        <v>61.24941606144377</v>
       </c>
       <c r="Y20" t="n">
-        <v>48.32024273192738</v>
+        <v>44.92500973308914</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="C21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="D21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="E21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="F21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="G21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="H21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="I21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="J21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="K21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="L21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="M21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="N21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="O21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="P21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="R21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="S21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="T21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="U21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="V21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="W21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="X21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="C22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="D22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="E22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="F22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="G22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="H22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="I22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="J22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="K22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="L22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="M22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="N22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="O22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="P22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="R22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="S22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="T22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="U22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="V22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="W22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="X22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.292892981205624</v>
+        <v>1.292892981205686</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>49.15353357583423</v>
+        <v>49.15353357583692</v>
       </c>
       <c r="C23" t="n">
-        <v>70.3001951506903</v>
+        <v>70.30019515069316</v>
       </c>
       <c r="D23" t="n">
-        <v>101.1699326076626</v>
+        <v>101.1699326076655</v>
       </c>
       <c r="E23" t="n">
-        <v>92.67430664103256</v>
+        <v>92.67430664103559</v>
       </c>
       <c r="F23" t="n">
-        <v>61.17778847250653</v>
+        <v>61.17778847250956</v>
       </c>
       <c r="G23" t="n">
-        <v>29.68127030398052</v>
+        <v>29.68127030398354</v>
       </c>
       <c r="H23" t="n">
         <v>2.49452423894726</v>
       </c>
       <c r="I23" t="n">
-        <v>12.00625129492721</v>
+        <v>12.00625129492756</v>
       </c>
       <c r="J23" t="n">
-        <v>12.00625129492721</v>
+        <v>12.00625129492756</v>
       </c>
       <c r="K23" t="n">
-        <v>12.00625129492721</v>
+        <v>22.97280252970117</v>
       </c>
       <c r="L23" t="n">
-        <v>3.513749196289368</v>
+        <v>14.48030043106349</v>
       </c>
       <c r="M23" t="n">
-        <v>3.513749196289368</v>
+        <v>14.48030043106349</v>
       </c>
       <c r="N23" t="n">
-        <v>3.513749196289368</v>
+        <v>20.37394334340538</v>
       </c>
       <c r="O23" t="n">
-        <v>6.378512483235763</v>
+        <v>23.23870663035191</v>
       </c>
       <c r="P23" t="n">
-        <v>2.558351704581437</v>
+        <v>19.41854585169775</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.237176118667062</v>
+        <v>23.09737026578355</v>
       </c>
       <c r="R23" t="n">
-        <v>6.237176118667062</v>
+        <v>23.09737026578355</v>
       </c>
       <c r="S23" t="n">
-        <v>37.10691357563941</v>
+        <v>53.9671077227559</v>
       </c>
       <c r="T23" t="n">
-        <v>37.10691357563941</v>
+        <v>53.9671077227559</v>
       </c>
       <c r="U23" t="n">
-        <v>67.9766510326118</v>
+        <v>84.83684517972824</v>
       </c>
       <c r="V23" t="n">
-        <v>67.9766510326118</v>
+        <v>92.80066657663264</v>
       </c>
       <c r="W23" t="n">
-        <v>92.80066657663029</v>
+        <v>92.80066657663264</v>
       </c>
       <c r="X23" t="n">
-        <v>95.13649131603943</v>
+        <v>95.13649131604194</v>
       </c>
       <c r="Y23" t="n">
-        <v>63.6399731475134</v>
+        <v>63.63997314751592</v>
       </c>
     </row>
     <row r="24">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.15353357583403</v>
+        <v>49.15353357583423</v>
       </c>
       <c r="C26" t="n">
-        <v>70.3001951506902</v>
+        <v>70.3001951506903</v>
       </c>
       <c r="D26" t="n">
         <v>101.1699326076626</v>
       </c>
       <c r="E26" t="n">
-        <v>92.67430664103253</v>
+        <v>92.67430664103256</v>
       </c>
       <c r="F26" t="n">
-        <v>61.17778847250651</v>
+        <v>61.17778847250653</v>
       </c>
       <c r="G26" t="n">
-        <v>29.68127030398046</v>
+        <v>29.68127030398052</v>
       </c>
       <c r="H26" t="n">
         <v>2.49452423894726</v>
       </c>
       <c r="I26" t="n">
-        <v>12.00625129492721</v>
+        <v>10.98702633758511</v>
       </c>
       <c r="J26" t="n">
-        <v>42.87598875189956</v>
+        <v>10.98702633758511</v>
       </c>
       <c r="K26" t="n">
-        <v>53.84253998667306</v>
+        <v>10.98702633758511</v>
       </c>
       <c r="L26" t="n">
-        <v>45.35003788803523</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="M26" t="n">
-        <v>49.19193868317626</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="N26" t="n">
-        <v>55.08558159551783</v>
+        <v>6.314685017601587</v>
       </c>
       <c r="O26" t="n">
-        <v>57.95034488246428</v>
+        <v>6.314685017601587</v>
       </c>
       <c r="P26" t="n">
-        <v>54.13018410381009</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.80900851789575</v>
+        <v>6.173348653032861</v>
       </c>
       <c r="R26" t="n">
-        <v>63.54649444697071</v>
+        <v>6.173348653032861</v>
       </c>
       <c r="S26" t="n">
-        <v>63.54649444697071</v>
+        <v>35.38329043538189</v>
       </c>
       <c r="T26" t="n">
-        <v>63.54649444697071</v>
+        <v>35.38329043538189</v>
       </c>
       <c r="U26" t="n">
-        <v>63.54649444697071</v>
+        <v>66.25302789235424</v>
       </c>
       <c r="V26" t="n">
-        <v>92.80066657662987</v>
+        <v>66.25302789235424</v>
       </c>
       <c r="W26" t="n">
-        <v>92.80066657662987</v>
+        <v>92.80066657663026</v>
       </c>
       <c r="X26" t="n">
-        <v>95.13649131603908</v>
+        <v>95.1364913160394</v>
       </c>
       <c r="Y26" t="n">
-        <v>63.63997314751312</v>
+        <v>63.6399731475134</v>
       </c>
     </row>
     <row r="27">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>51.10097336759483</v>
+        <v>49.15353357583426</v>
       </c>
       <c r="C29" t="n">
-        <v>72.24763494245096</v>
+        <v>70.30019515069033</v>
       </c>
       <c r="D29" t="n">
-        <v>101.1699326076624</v>
+        <v>101.1699326076627</v>
       </c>
       <c r="E29" t="n">
-        <v>92.67430664103236</v>
+        <v>92.67430664103259</v>
       </c>
       <c r="F29" t="n">
-        <v>61.17778847250639</v>
+        <v>61.17778847250653</v>
       </c>
       <c r="G29" t="n">
-        <v>29.68127030398045</v>
+        <v>29.68127030398052</v>
       </c>
       <c r="H29" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="I29" t="n">
-        <v>2.494524238947256</v>
+        <v>12.00625129492716</v>
       </c>
       <c r="J29" t="n">
-        <v>33.36426169591955</v>
+        <v>12.00625129492716</v>
       </c>
       <c r="K29" t="n">
-        <v>33.36426169591955</v>
+        <v>22.9728025297006</v>
       </c>
       <c r="L29" t="n">
-        <v>24.87175959728171</v>
+        <v>14.48030043106275</v>
       </c>
       <c r="M29" t="n">
-        <v>28.71366039242264</v>
+        <v>18.32220122620372</v>
       </c>
       <c r="N29" t="n">
-        <v>34.60730330476446</v>
+        <v>24.21584413854529</v>
       </c>
       <c r="O29" t="n">
-        <v>37.47206659171091</v>
+        <v>25.46504209818017</v>
       </c>
       <c r="P29" t="n">
-        <v>33.6519058130566</v>
+        <v>21.64488131952592</v>
       </c>
       <c r="Q29" t="n">
-        <v>37.3307302271423</v>
+        <v>25.32370573361154</v>
       </c>
       <c r="R29" t="n">
-        <v>37.3307302271423</v>
+        <v>31.06119166268563</v>
       </c>
       <c r="S29" t="n">
-        <v>37.3307302271423</v>
+        <v>31.06119166268563</v>
       </c>
       <c r="T29" t="n">
-        <v>37.3307302271423</v>
+        <v>61.93092911965797</v>
       </c>
       <c r="U29" t="n">
-        <v>68.20046768411459</v>
+        <v>61.93092911965797</v>
       </c>
       <c r="V29" t="n">
-        <v>68.20046768411459</v>
+        <v>92.80066657663032</v>
       </c>
       <c r="W29" t="n">
-        <v>94.74810636839067</v>
+        <v>92.80066657663032</v>
       </c>
       <c r="X29" t="n">
-        <v>97.08393110779991</v>
+        <v>95.13649131603945</v>
       </c>
       <c r="Y29" t="n">
-        <v>65.58741293927395</v>
+        <v>63.63997314751343</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="C30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="D30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="E30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="F30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="G30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="H30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="I30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="J30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="K30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="L30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="M30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="N30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="O30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="P30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="R30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="S30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="T30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="U30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="V30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="W30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="X30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="C31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="D31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="E31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="F31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="G31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="H31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="I31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="J31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="K31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="L31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="M31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="N31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="O31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="P31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="R31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="S31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="T31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="U31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="V31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="W31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="X31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.494524238947256</v>
+        <v>2.49452423894726</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.9872177162967</v>
+        <v>95.31845722446178</v>
       </c>
       <c r="C32" t="n">
-        <v>133.1132093643825</v>
+        <v>95.31845722446178</v>
       </c>
       <c r="D32" t="n">
-        <v>133.1132093643825</v>
+        <v>133.1132093643824</v>
       </c>
       <c r="E32" t="n">
-        <v>125.61679783835</v>
+        <v>125.6167978383501</v>
       </c>
       <c r="F32" t="n">
-        <v>77.79587334146933</v>
+        <v>77.79587334146929</v>
       </c>
       <c r="G32" t="n">
-        <v>29.97494884458863</v>
+        <v>29.97494884458852</v>
       </c>
       <c r="H32" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="I32" t="n">
-        <v>3.787417220152952</v>
+        <v>14.27847434936272</v>
       </c>
       <c r="J32" t="n">
-        <v>50.65670531954573</v>
+        <v>61.14776244875557</v>
       </c>
       <c r="K32" t="n">
-        <v>62.60258662754876</v>
+        <v>61.14776244875557</v>
       </c>
       <c r="L32" t="n">
-        <v>55.10929896950847</v>
+        <v>53.65447479071541</v>
       </c>
       <c r="M32" t="n">
-        <v>59.93052983787908</v>
+        <v>53.65447479071541</v>
       </c>
       <c r="N32" t="n">
-        <v>66.80350282345057</v>
+        <v>60.52744777628696</v>
       </c>
       <c r="O32" t="n">
-        <v>70.64759618362665</v>
+        <v>64.37154113646316</v>
       </c>
       <c r="P32" t="n">
-        <v>67.82664984556973</v>
+        <v>61.55059479840661</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.82664984556973</v>
+        <v>66.20874928572205</v>
       </c>
       <c r="R32" t="n">
-        <v>74.54346584787345</v>
+        <v>66.20874928572205</v>
       </c>
       <c r="S32" t="n">
-        <v>74.54346584787345</v>
+        <v>113.0780373851149</v>
       </c>
       <c r="T32" t="n">
-        <v>121.4127539472662</v>
+        <v>135.9878312708325</v>
       </c>
       <c r="U32" t="n">
-        <v>124.1296230051622</v>
+        <v>135.9878312708325</v>
       </c>
       <c r="V32" t="n">
-        <v>124.1296230051622</v>
+        <v>135.9878312708325</v>
       </c>
       <c r="W32" t="n">
-        <v>151.6565917626679</v>
+        <v>135.9878312708325</v>
       </c>
       <c r="X32" t="n">
-        <v>154.9717465753067</v>
+        <v>139.3029860834715</v>
       </c>
       <c r="Y32" t="n">
-        <v>124.4744428473783</v>
+        <v>108.8056823555432</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="C33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="D33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="E33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="F33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="G33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="H33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="I33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="J33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="K33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="L33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="M33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="N33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="O33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="P33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="R33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="S33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="T33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="U33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="V33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="W33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="X33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="Y33" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="C34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="D34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="E34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="F34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="G34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="H34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="I34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="J34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="K34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="L34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="M34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="N34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="O34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="P34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="R34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="S34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="T34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="U34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="V34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="W34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="X34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.787417220152952</v>
+        <v>3.787417220152956</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>53.066487536561</v>
+        <v>75.19247918464637</v>
       </c>
       <c r="C35" t="n">
-        <v>75.19247918464691</v>
+        <v>75.19247918464637</v>
       </c>
       <c r="D35" t="n">
-        <v>112.2068692920974</v>
+        <v>112.2068692920963</v>
       </c>
       <c r="E35" t="n">
-        <v>104.7104577660649</v>
+        <v>104.7104577660639</v>
       </c>
       <c r="F35" t="n">
-        <v>66.94452560868258</v>
+        <v>66.94452560868206</v>
       </c>
       <c r="G35" t="n">
-        <v>29.17859345130023</v>
+        <v>29.17859345130019</v>
       </c>
       <c r="H35" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="I35" t="n">
-        <v>13.48211895607443</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="J35" t="n">
-        <v>13.48211895607443</v>
+        <v>40.0054519343146</v>
       </c>
       <c r="K35" t="n">
-        <v>25.42800026407765</v>
+        <v>40.0054519343146</v>
       </c>
       <c r="L35" t="n">
-        <v>17.9347126060375</v>
+        <v>32.51216427627444</v>
       </c>
       <c r="M35" t="n">
-        <v>22.75594347440824</v>
+        <v>37.33339514464519</v>
       </c>
       <c r="N35" t="n">
-        <v>29.62891645997982</v>
+        <v>44.20636813021676</v>
       </c>
       <c r="O35" t="n">
-        <v>33.473009820156</v>
+        <v>48.05046149039294</v>
       </c>
       <c r="P35" t="n">
-        <v>30.65206348209941</v>
+        <v>45.22951515233635</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.31021796941483</v>
+        <v>49.88766963965177</v>
       </c>
       <c r="R35" t="n">
-        <v>42.02703397171866</v>
+        <v>49.88766963965177</v>
       </c>
       <c r="S35" t="n">
-        <v>42.02703397171866</v>
+        <v>49.88766963965177</v>
       </c>
       <c r="T35" t="n">
-        <v>42.02703397171866</v>
+        <v>86.90205974710173</v>
       </c>
       <c r="U35" t="n">
-        <v>79.0414240791691</v>
+        <v>115.8618532310172</v>
       </c>
       <c r="V35" t="n">
-        <v>79.0414240791691</v>
+        <v>115.8618532310172</v>
       </c>
       <c r="W35" t="n">
-        <v>93.73586158293182</v>
+        <v>115.8618532310172</v>
       </c>
       <c r="X35" t="n">
-        <v>97.05101639557078</v>
+        <v>119.1770080436562</v>
       </c>
       <c r="Y35" t="n">
-        <v>66.55371266764246</v>
+        <v>88.67970431572783</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="C36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="D36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="E36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="F36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="G36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="H36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="I36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="J36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="K36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="L36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="M36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="N36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="O36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="P36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="R36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="S36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="T36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="U36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="V36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="W36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="X36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="C37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="D37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="E37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="F37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="G37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="H37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="I37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="J37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="K37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="L37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="M37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="N37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="O37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="P37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="R37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="S37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="T37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="U37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="V37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="W37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="X37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864643</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54.90063346955031</v>
+        <v>76.42340830312565</v>
       </c>
       <c r="C38" t="n">
         <v>76.42340830312565</v>
@@ -7166,58 +7166,58 @@
         <v>29.79405801053964</v>
       </c>
       <c r="H38" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="I38" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="J38" t="n">
-        <v>2.991061826864682</v>
+        <v>40.00545193431508</v>
       </c>
       <c r="K38" t="n">
-        <v>14.33372632035732</v>
+        <v>40.00545193431508</v>
       </c>
       <c r="L38" t="n">
-        <v>6.22497410307776</v>
+        <v>31.89669971703551</v>
       </c>
       <c r="M38" t="n">
-        <v>10.442988156938</v>
+        <v>36.11471377089571</v>
       </c>
       <c r="N38" t="n">
-        <v>16.71274432799903</v>
+        <v>42.38446994195648</v>
       </c>
       <c r="O38" t="n">
-        <v>19.95362087366454</v>
+        <v>45.62534648762215</v>
       </c>
       <c r="P38" t="n">
-        <v>16.51720997636859</v>
+        <v>42.18893559032611</v>
       </c>
       <c r="Q38" t="n">
-        <v>20.57214764917529</v>
+        <v>42.18893559032611</v>
       </c>
       <c r="R38" t="n">
-        <v>20.57214764917529</v>
+        <v>48.30253477811942</v>
       </c>
       <c r="S38" t="n">
-        <v>20.57214764917529</v>
+        <v>48.30253477811942</v>
       </c>
       <c r="T38" t="n">
-        <v>57.58653775662574</v>
+        <v>83.30693765592454</v>
       </c>
       <c r="U38" t="n">
-        <v>61.78416282235008</v>
+        <v>83.30693765592454</v>
       </c>
       <c r="V38" t="n">
-        <v>97.40415344891045</v>
+        <v>118.9269282824849</v>
       </c>
       <c r="W38" t="n">
-        <v>97.40415344891045</v>
+        <v>118.9269282824849</v>
       </c>
       <c r="X38" t="n">
-        <v>100.1160914470389</v>
+        <v>121.6388662806142</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.00332315987117</v>
+        <v>90.52609799344648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="C39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="D39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="E39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="F39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="G39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="H39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="I39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="J39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="K39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="L39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="M39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="N39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="O39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="P39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="R39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="S39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="T39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="U39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="V39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="W39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="X39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="C40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="D40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="E40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="F40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="G40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="H40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="I40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="J40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="K40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="L40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="M40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="N40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="O40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="P40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="R40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="S40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="T40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="U40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="V40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="W40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="X40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.991061826864682</v>
+        <v>2.991061826864679</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.74325420715775</v>
+        <v>49.153533575834</v>
       </c>
       <c r="C41" t="n">
-        <v>99.88991578201382</v>
+        <v>70.30019515069013</v>
       </c>
       <c r="D41" t="n">
-        <v>101.1699326076625</v>
+        <v>101.1699326076624</v>
       </c>
       <c r="E41" t="n">
-        <v>92.67430664103244</v>
+        <v>92.67430664103239</v>
       </c>
       <c r="F41" t="n">
-        <v>61.17778847250653</v>
+        <v>61.17778847250642</v>
       </c>
       <c r="G41" t="n">
-        <v>29.68127030398052</v>
+        <v>29.68127030398045</v>
       </c>
       <c r="H41" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="I41" t="n">
-        <v>12.00625129492715</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="J41" t="n">
-        <v>42.87598875189992</v>
+        <v>33.36426169591951</v>
       </c>
       <c r="K41" t="n">
-        <v>42.87598875189992</v>
+        <v>33.36426169591951</v>
       </c>
       <c r="L41" t="n">
-        <v>34.38348665326208</v>
+        <v>24.87175959728172</v>
       </c>
       <c r="M41" t="n">
-        <v>38.22538744840301</v>
+        <v>24.87175959728172</v>
       </c>
       <c r="N41" t="n">
-        <v>38.22538744840301</v>
+        <v>30.76540250962354</v>
       </c>
       <c r="O41" t="n">
-        <v>41.09015073534937</v>
+        <v>30.76540250962354</v>
       </c>
       <c r="P41" t="n">
-        <v>37.26998995669504</v>
+        <v>26.94524173096934</v>
       </c>
       <c r="Q41" t="n">
-        <v>40.9488143707807</v>
+        <v>30.62406614505487</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9488143707807</v>
+        <v>36.36155207412896</v>
       </c>
       <c r="S41" t="n">
-        <v>62.98673703341834</v>
+        <v>36.36155207412896</v>
       </c>
       <c r="T41" t="n">
-        <v>62.98673703341834</v>
+        <v>37.71911517479298</v>
       </c>
       <c r="U41" t="n">
-        <v>93.85647449039068</v>
+        <v>68.58885263176526</v>
       </c>
       <c r="V41" t="n">
-        <v>124.726211947363</v>
+        <v>68.58885263176526</v>
       </c>
       <c r="W41" t="n">
-        <v>124.726211947363</v>
+        <v>95.13649131603908</v>
       </c>
       <c r="X41" t="n">
-        <v>124.726211947363</v>
+        <v>95.13649131603908</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.22969377883692</v>
+        <v>63.63997314751312</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="C42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="D42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="E42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="F42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="G42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="H42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="I42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="J42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="K42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="L42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="M42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="N42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="O42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="P42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="R42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="S42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="T42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="U42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="V42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="W42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="X42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="C43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="D43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="E43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="F43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="G43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="H43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="I43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="J43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="K43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="L43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="M43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="N43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="O43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="P43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="R43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="S43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="T43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="U43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="V43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="W43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="X43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.49452423894726</v>
+        <v>2.494524238947256</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>70.30019515069145</v>
+        <v>78.74325420715785</v>
       </c>
       <c r="C44" t="n">
-        <v>70.30019515069145</v>
+        <v>99.88991578201392</v>
       </c>
       <c r="D44" t="n">
-        <v>101.1699326076652</v>
+        <v>101.1699326076625</v>
       </c>
       <c r="E44" t="n">
-        <v>92.67430664103537</v>
+        <v>92.67430664103243</v>
       </c>
       <c r="F44" t="n">
-        <v>61.1777884725079</v>
+        <v>61.17778847250647</v>
       </c>
       <c r="G44" t="n">
-        <v>29.6812703039804</v>
+        <v>29.68127030398051</v>
       </c>
       <c r="H44" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="I44" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="J44" t="n">
-        <v>33.36426169592115</v>
+        <v>26.62080807777232</v>
       </c>
       <c r="K44" t="n">
-        <v>44.33081293069475</v>
+        <v>26.62080807777232</v>
       </c>
       <c r="L44" t="n">
-        <v>35.83831083205713</v>
+        <v>18.12830597913444</v>
       </c>
       <c r="M44" t="n">
-        <v>39.68021162719731</v>
+        <v>21.97020677427532</v>
       </c>
       <c r="N44" t="n">
-        <v>45.57385453953928</v>
+        <v>27.86384968661707</v>
       </c>
       <c r="O44" t="n">
-        <v>48.43861782648587</v>
+        <v>27.86384968661707</v>
       </c>
       <c r="P44" t="n">
-        <v>44.61845704783177</v>
+        <v>24.04368890796275</v>
       </c>
       <c r="Q44" t="n">
-        <v>48.29728146191762</v>
+        <v>24.04368890796275</v>
       </c>
       <c r="R44" t="n">
-        <v>48.29728146191762</v>
+        <v>29.78117483703676</v>
       </c>
       <c r="S44" t="n">
-        <v>79.1670189188914</v>
+        <v>60.65091229400905</v>
       </c>
       <c r="T44" t="n">
-        <v>79.1670189188914</v>
+        <v>91.52064975098133</v>
       </c>
       <c r="U44" t="n">
-        <v>110.0367563758652</v>
+        <v>122.3903872079536</v>
       </c>
       <c r="V44" t="n">
-        <v>110.0367563758652</v>
+        <v>122.3903872079536</v>
       </c>
       <c r="W44" t="n">
-        <v>113.9473281514881</v>
+        <v>122.3903872079536</v>
       </c>
       <c r="X44" t="n">
-        <v>116.2831528908975</v>
+        <v>124.7262119473628</v>
       </c>
       <c r="Y44" t="n">
-        <v>84.78663472237039</v>
+        <v>93.22969377883702</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="C45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="D45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="E45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="F45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="G45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="H45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="I45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="J45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="K45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="L45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="M45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="N45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="O45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="P45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="R45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="S45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="T45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="U45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="V45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="W45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="X45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="C46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="D46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="E46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="F46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="G46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="H46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="I46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="J46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="K46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="L46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="M46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="N46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="O46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="P46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="R46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="S46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="T46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="U46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="V46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="W46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="X46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.494524238947376</v>
+        <v>2.494524238947256</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.429181277645547</v>
+        <v>7.429181277645057</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.498275808646987</v>
+        <v>3.763661741897551</v>
       </c>
       <c r="F11" t="n">
-        <v>45.6901500830048</v>
+        <v>45.69015008300431</v>
       </c>
       <c r="G11" t="n">
-        <v>75.56587631559259</v>
+        <v>75.56587631559211</v>
       </c>
       <c r="H11" t="n">
-        <v>22.26787063931695</v>
+        <v>20.00248470606562</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1.495183179334653</v>
+        <v>1.495183179334163</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.26915908852394</v>
+        <v>24.26915908852345</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.429181277645718</v>
+        <v>7.429181277645505</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.498275808647158</v>
+        <v>3.76366174189792</v>
       </c>
       <c r="F14" t="n">
-        <v>45.69015008300497</v>
+        <v>45.69015008300476</v>
       </c>
       <c r="G14" t="n">
-        <v>77.83126224884384</v>
+        <v>75.56587631559256</v>
       </c>
       <c r="H14" t="n">
-        <v>20.00248470606628</v>
+        <v>20.00248470606606</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23522,7 +23522,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.495183179334823</v>
+        <v>1.49518317933461</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.26915908852411</v>
+        <v>24.2691590885239</v>
       </c>
     </row>
     <row r="15">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>38.26096880536021</v>
+        <v>38.26096880535931</v>
       </c>
       <c r="G20" t="n">
-        <v>68.136695037948</v>
+        <v>68.13669503794711</v>
       </c>
       <c r="H20" t="n">
-        <v>12.57330342842151</v>
+        <v>12.57330342842062</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>16.83997781087934</v>
+        <v>16.83997781087846</v>
       </c>
     </row>
     <row r="21">
@@ -24215,10 +24215,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>21.42099099448086</v>
+        <v>21.42099099448069</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29671722706865</v>
+        <v>51.29671722706848</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>21.4209909944808</v>
+        <v>21.42099099448086</v>
       </c>
       <c r="G26" t="n">
-        <v>51.2967172270686</v>
+        <v>51.29671722706865</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24926,10 +24926,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>4.27060643321812</v>
+        <v>4.270606433217949</v>
       </c>
       <c r="G32" t="n">
-        <v>34.14633266580591</v>
+        <v>34.14633266580574</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25163,10 +25163,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>14.22504884932135</v>
+        <v>14.22504884932187</v>
       </c>
       <c r="G35" t="n">
-        <v>44.10077508190917</v>
+        <v>44.10077508190966</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25400,10 +25400,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>14.83435876296837</v>
+        <v>14.83435876296841</v>
       </c>
       <c r="G38" t="n">
-        <v>44.71008499555617</v>
+        <v>44.71008499555621</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25874,10 +25874,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>21.42099099447919</v>
+        <v>21.42099099448092</v>
       </c>
       <c r="G44" t="n">
-        <v>51.29671722706698</v>
+        <v>51.29671722706871</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>-1.669775429036235e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26314,46 +26314,46 @@
         <v>697893.8670831785</v>
       </c>
       <c r="C2" t="n">
-        <v>697893.8670831785</v>
+        <v>697893.8670831786</v>
       </c>
       <c r="D2" t="n">
         <v>697893.8670831785</v>
       </c>
       <c r="E2" t="n">
-        <v>689440.3821656035</v>
+        <v>689440.3821656033</v>
       </c>
       <c r="F2" t="n">
-        <v>689440.382165603</v>
+        <v>689440.3821656031</v>
       </c>
       <c r="G2" t="n">
-        <v>691803.1749085662</v>
+        <v>691803.1749085664</v>
       </c>
       <c r="H2" t="n">
-        <v>691803.1749085661</v>
+        <v>691803.1749085658</v>
       </c>
       <c r="I2" t="n">
+        <v>695318.7300664645</v>
+      </c>
+      <c r="J2" t="n">
         <v>695318.7300664643</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>695318.7300664643</v>
+      </c>
+      <c r="L2" t="n">
+        <v>697229.9689219717</v>
+      </c>
+      <c r="M2" t="n">
+        <v>696120.6458591211</v>
+      </c>
+      <c r="N2" t="n">
+        <v>696052.7443623442</v>
+      </c>
+      <c r="O2" t="n">
         <v>695318.7300664642</v>
       </c>
-      <c r="K2" t="n">
-        <v>695318.7300664644</v>
-      </c>
-      <c r="L2" t="n">
-        <v>697229.9689219719</v>
-      </c>
-      <c r="M2" t="n">
-        <v>696120.6458591212</v>
-      </c>
-      <c r="N2" t="n">
-        <v>696052.7443623443</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>695318.7300664643</v>
-      </c>
-      <c r="P2" t="n">
-        <v>695318.7300664647</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>314713.3016654427</v>
+        <v>314713.3016654428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2679.137952746689</v>
+        <v>2679.137952746571</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5449.906992411034</v>
+        <v>5449.906992410873</v>
       </c>
       <c r="J3" t="n">
-        <v>272628.8078174962</v>
+        <v>272628.8078174961</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.350164755668629e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>5859.591698724726</v>
+        <v>5859.591698724771</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>968.2217403695176</v>
+        <v>968.2217403695631</v>
       </c>
       <c r="O3" t="n">
-        <v>272324.8779114605</v>
+        <v>272324.8779114603</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>545257.9913624505</v>
+        <v>545257.9913624508</v>
       </c>
       <c r="F4" t="n">
-        <v>545257.9913624505</v>
+        <v>545257.9913624506</v>
       </c>
       <c r="G4" t="n">
         <v>547217.7714817044</v>
       </c>
       <c r="H4" t="n">
-        <v>547217.7714817042</v>
+        <v>547217.7714817043</v>
       </c>
       <c r="I4" t="n">
-        <v>550134.9769296526</v>
+        <v>550134.9769296527</v>
       </c>
       <c r="J4" t="n">
-        <v>550134.9769296526</v>
+        <v>550134.9769296525</v>
       </c>
       <c r="K4" t="n">
         <v>550134.9769296526</v>
@@ -26451,13 +26451,13 @@
         <v>550795.6093432005</v>
       </c>
       <c r="N4" t="n">
-        <v>550744.0615284254</v>
+        <v>550744.0615284255</v>
       </c>
       <c r="O4" t="n">
+        <v>550134.9769296527</v>
+      </c>
+      <c r="P4" t="n">
         <v>550134.9769296526</v>
-      </c>
-      <c r="P4" t="n">
-        <v>550134.9769296529</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>30316.06528626092</v>
+      </c>
+      <c r="F5" t="n">
         <v>30316.06528626089</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30316.06528626088</v>
       </c>
       <c r="G5" t="n">
         <v>30796.20496292564</v>
       </c>
       <c r="H5" t="n">
-        <v>30796.20496292559</v>
+        <v>30796.20496292564</v>
       </c>
       <c r="I5" t="n">
+        <v>31862.41558580354</v>
+      </c>
+      <c r="J5" t="n">
         <v>31862.41558580352</v>
-      </c>
-      <c r="J5" t="n">
-        <v>31862.41558580353</v>
       </c>
       <c r="K5" t="n">
         <v>31862.41558580352</v>
       </c>
       <c r="L5" t="n">
-        <v>32928.17718073838</v>
+        <v>32928.17718073839</v>
       </c>
       <c r="M5" t="n">
-        <v>32322.9470818393</v>
+        <v>32322.94708183927</v>
       </c>
       <c r="N5" t="n">
         <v>32271.72300670891</v>
@@ -26509,7 +26509,7 @@
         <v>31862.41558580352</v>
       </c>
       <c r="P5" t="n">
-        <v>31862.41558580363</v>
+        <v>31862.41558580352</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95216.49340884233</v>
+        <v>95211.21950282308</v>
       </c>
       <c r="C6" t="n">
-        <v>95216.49340884233</v>
+        <v>95211.21950282319</v>
       </c>
       <c r="D6" t="n">
-        <v>95216.49340884233</v>
+        <v>95211.21950282308</v>
       </c>
       <c r="E6" t="n">
-        <v>-200846.9761485507</v>
+        <v>-200882.4410721332</v>
       </c>
       <c r="F6" t="n">
-        <v>113866.3255168917</v>
+        <v>113830.8605933097</v>
       </c>
       <c r="G6" t="n">
-        <v>111110.0605111894</v>
+        <v>111083.0341331183</v>
       </c>
       <c r="H6" t="n">
-        <v>113789.1984639366</v>
+        <v>113762.1720858644</v>
       </c>
       <c r="I6" t="n">
-        <v>107871.4305585971</v>
+        <v>107856.9597346613</v>
       </c>
       <c r="J6" t="n">
-        <v>-159307.4702664882</v>
+        <v>-159321.9410904239</v>
       </c>
       <c r="K6" t="n">
-        <v>113321.3375510084</v>
+        <v>113306.866727072</v>
       </c>
       <c r="L6" t="n">
-        <v>106721.2783185923</v>
+        <v>106713.6333477114</v>
       </c>
       <c r="M6" t="n">
-        <v>113002.0894340815</v>
+        <v>112990.4825951191</v>
       </c>
       <c r="N6" t="n">
-        <v>112068.7380868404</v>
+        <v>112056.8887425322</v>
       </c>
       <c r="O6" t="n">
-        <v>-159003.5403604523</v>
+        <v>-159018.0111843885</v>
       </c>
       <c r="P6" t="n">
-        <v>113321.3375510083</v>
+        <v>113306.866727072</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="F2" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="G2" t="n">
         <v>342.0084712005481</v>
       </c>
       <c r="H2" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="I2" t="n">
+        <v>343.828058289657</v>
+      </c>
+      <c r="J2" t="n">
         <v>343.8280582896568</v>
       </c>
-      <c r="J2" t="n">
-        <v>343.8280582896569</v>
-      </c>
       <c r="K2" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="L2" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="M2" t="n">
         <v>344.8172805858486</v>
@@ -26722,10 +26722,10 @@
         <v>344.2079706722016</v>
       </c>
       <c r="O2" t="n">
+        <v>343.8280582896569</v>
+      </c>
+      <c r="P2" t="n">
         <v>343.8280582896568</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343.8280582896571</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>48.68330880047893</v>
       </c>
       <c r="G3" t="n">
-        <v>48.68330880047893</v>
+        <v>48.68330880047886</v>
       </c>
       <c r="H3" t="n">
         <v>48.68330880047893</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="F4" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="G4" t="n">
         <v>16.16116226507114</v>
       </c>
       <c r="H4" t="n">
-        <v>16.16116226507031</v>
+        <v>16.16116226507108</v>
       </c>
       <c r="I4" t="n">
         <v>31.18155298684076</v>
@@ -26814,22 +26814,22 @@
         <v>31.18155298684076</v>
       </c>
       <c r="K4" t="n">
+        <v>31.18155298684076</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47.34271525191195</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37.38827283580804</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37.38827283580849</v>
+      </c>
+      <c r="O4" t="n">
         <v>31.1815529868407</v>
       </c>
-      <c r="L4" t="n">
-        <v>47.3427152519119</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37.38827283580853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37.38827283580853</v>
-      </c>
-      <c r="O4" t="n">
-        <v>31.18155298684076</v>
-      </c>
       <c r="P4" t="n">
-        <v>31.1815529868422</v>
+        <v>31.1815529868407</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.222461428677946</v>
+        <v>1.222461428677832</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.819587089108893</v>
+        <v>1.81958708910895</v>
       </c>
       <c r="J2" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.687705944585787e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.211683724869488</v>
+        <v>2.211683724869545</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.210277175461897</v>
+        <v>1.210277175461954</v>
       </c>
       <c r="O2" t="n">
-        <v>340.4060973893256</v>
+        <v>340.4060973893254</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.206719848967772</v>
+        <v>6.206719848967673</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15.02039072177045</v>
+        <v>15.02039072176968</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.222461428677946</v>
+        <v>1.222461428677832</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.819587089108893</v>
+        <v>1.81958708910895</v>
       </c>
       <c r="O2" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718701</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.687705944585787e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.206719848967772</v>
+        <v>6.206719848967673</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="C11" t="n">
-        <v>332.4222364887338</v>
+        <v>332.4222364887344</v>
       </c>
       <c r="D11" t="n">
-        <v>316.5952056889008</v>
+        <v>316.5952056889013</v>
       </c>
       <c r="E11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="F11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="G11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="H11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="I11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="J11" t="n">
-        <v>287.5432433812966</v>
+        <v>277.5888009651933</v>
       </c>
       <c r="K11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="L11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="M11" t="n">
         <v>339.9473504157771</v>
       </c>
       <c r="N11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="O11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="P11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="Q11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="R11" t="n">
-        <v>338.0326179572588</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="S11" t="n">
-        <v>292.0748628383148</v>
+        <v>293.3926760602895</v>
       </c>
       <c r="T11" t="n">
-        <v>225.5074303779148</v>
+        <v>235.4618727940187</v>
       </c>
       <c r="U11" t="n">
         <v>248.0272292466047</v>
       </c>
       <c r="V11" t="n">
-        <v>318.1826245766277</v>
+        <v>318.1826245766283</v>
       </c>
       <c r="W11" t="n">
-        <v>326.9667040549763</v>
+        <v>322.895499018393</v>
       </c>
       <c r="X11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="Y11" t="n">
-        <v>340.7860097718703</v>
+        <v>340.7860097718702</v>
       </c>
     </row>
     <row r="12">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="C14" t="n">
-        <v>332.4222364887338</v>
+        <v>332.4222364887339</v>
       </c>
       <c r="D14" t="n">
-        <v>316.5952056889008</v>
+        <v>316.5952056889009</v>
       </c>
       <c r="E14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="F14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="G14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="H14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="I14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="J14" t="n">
-        <v>287.5432433812966</v>
+        <v>287.5432433812967</v>
       </c>
       <c r="K14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="L14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="M14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="N14" t="n">
         <v>337.8748836307258</v>
       </c>
       <c r="O14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="P14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="Q14" t="n">
-        <v>340.1120740330047</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="R14" t="n">
-        <v>340.7860097718701</v>
+        <v>338.0326179572588</v>
       </c>
       <c r="S14" t="n">
-        <v>283.4382336441856</v>
+        <v>293.392676060289</v>
       </c>
       <c r="T14" t="n">
-        <v>234.1370702813507</v>
+        <v>235.4618727940182</v>
       </c>
       <c r="U14" t="n">
-        <v>248.0272292466047</v>
+        <v>248.7818828096829</v>
       </c>
       <c r="V14" t="n">
-        <v>318.1826245766277</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W14" t="n">
-        <v>326.9667040549763</v>
+        <v>326.9667040549764</v>
       </c>
       <c r="X14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
       <c r="Y14" t="n">
-        <v>340.7860097718701</v>
+        <v>340.7860097718702</v>
       </c>
     </row>
     <row r="15">
@@ -28585,22 +28585,22 @@
         <v>342.0084712005481</v>
       </c>
       <c r="J17" t="n">
-        <v>293.7499632302644</v>
+        <v>293.7499632302645</v>
       </c>
       <c r="K17" t="n">
-        <v>332.7507338100877</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="L17" t="n">
         <v>342.0084712005481</v>
       </c>
       <c r="M17" t="n">
-        <v>342.0084712005481</v>
+        <v>339.9473504157771</v>
       </c>
       <c r="N17" t="n">
         <v>337.8748836307258</v>
       </c>
       <c r="O17" t="n">
-        <v>340.934357999812</v>
+        <v>340.9343579998121</v>
       </c>
       <c r="P17" t="n">
         <v>342.0084712005481</v>
@@ -28612,19 +28612,19 @@
         <v>338.0326179572588</v>
       </c>
       <c r="S17" t="n">
-        <v>283.4382336441856</v>
+        <v>299.5993959092567</v>
       </c>
       <c r="T17" t="n">
-        <v>231.1552126863542</v>
+        <v>225.5074303779148</v>
       </c>
       <c r="U17" t="n">
-        <v>264.1883915116758</v>
+        <v>248.0272292466047</v>
       </c>
       <c r="V17" t="n">
         <v>324.3893444255955</v>
       </c>
       <c r="W17" t="n">
-        <v>333.1734239039441</v>
+        <v>331.6245896066941</v>
       </c>
       <c r="X17" t="n">
         <v>341.4686393609607</v>
@@ -28664,7 +28664,7 @@
         <v>158.1185469897759</v>
       </c>
       <c r="J18" t="n">
-        <v>196.2178682873794</v>
+        <v>196.2178682873795</v>
       </c>
       <c r="K18" t="n">
         <v>207.0831555021331</v>
@@ -28676,10 +28676,10 @@
         <v>204.4354018270188</v>
       </c>
       <c r="N18" t="n">
-        <v>186.1956450735336</v>
+        <v>186.1956450735337</v>
       </c>
       <c r="O18" t="n">
-        <v>206.8045250288299</v>
+        <v>206.80452502883</v>
       </c>
       <c r="P18" t="n">
         <v>197.7124318732371</v>
@@ -28749,7 +28749,7 @@
         <v>199.4469922899049</v>
       </c>
       <c r="L19" t="n">
-        <v>206.1356836763067</v>
+        <v>206.1356836763068</v>
       </c>
       <c r="M19" t="n">
         <v>211.992984264913</v>
@@ -28761,13 +28761,13 @@
         <v>212.583217849329</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1902567391833</v>
+        <v>213.1902567391834</v>
       </c>
       <c r="Q19" t="n">
         <v>238.8444480189772</v>
       </c>
       <c r="R19" t="n">
-        <v>270.9021456138629</v>
+        <v>270.902145613863</v>
       </c>
       <c r="S19" t="n">
         <v>263.9664420901331</v>
@@ -28798,37 +28798,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="C20" t="n">
-        <v>335.1994280560457</v>
+        <v>338.6289563377015</v>
       </c>
       <c r="D20" t="n">
-        <v>322.8019255378677</v>
+        <v>322.8019255378685</v>
       </c>
       <c r="E20" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="F20" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="G20" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="H20" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="I20" t="n">
-        <v>334.2202531826064</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="J20" t="n">
-        <v>293.7499632302636</v>
+        <v>293.7499632302644</v>
       </c>
       <c r="K20" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="L20" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="M20" t="n">
         <v>339.9473504157771</v>
@@ -28837,37 +28837,37 @@
         <v>337.8748836307258</v>
       </c>
       <c r="O20" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="P20" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="Q20" t="n">
         <v>340.1120740330047</v>
       </c>
       <c r="R20" t="n">
-        <v>342.0084712005479</v>
+        <v>338.0326179572588</v>
       </c>
       <c r="S20" t="n">
         <v>283.4382336441856</v>
       </c>
       <c r="T20" t="n">
-        <v>226.6968476545818</v>
+        <v>235.0762850237547</v>
       </c>
       <c r="U20" t="n">
-        <v>264.188391511675</v>
+        <v>264.1883915116758</v>
       </c>
       <c r="V20" t="n">
-        <v>324.3893444255947</v>
+        <v>324.3893444255955</v>
       </c>
       <c r="W20" t="n">
-        <v>333.1734239039432</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X20" t="n">
-        <v>341.4686393609607</v>
+        <v>342.0084712005481</v>
       </c>
       <c r="Y20" t="n">
-        <v>342.0084712005479</v>
+        <v>342.0084712005481</v>
       </c>
     </row>
     <row r="21">
@@ -29035,52 +29035,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="C23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="D23" t="n">
         <v>337.8223162596382</v>
       </c>
       <c r="E23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="F23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="G23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="H23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="I23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="J23" t="n">
         <v>277.5888009651933</v>
       </c>
       <c r="K23" t="n">
-        <v>332.7507338100877</v>
+        <v>343.828058289657</v>
       </c>
       <c r="L23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="M23" t="n">
         <v>339.9473504157771</v>
       </c>
       <c r="N23" t="n">
-        <v>337.8748836307258</v>
+        <v>343.828058289657</v>
       </c>
       <c r="O23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="P23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="Q23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="R23" t="n">
         <v>338.0326179572588</v>
@@ -29095,16 +29095,16 @@
         <v>279.2087822334454</v>
       </c>
       <c r="V23" t="n">
-        <v>308.2281821605244</v>
+        <v>316.2724461978016</v>
       </c>
       <c r="W23" t="n">
-        <v>342.0870248146492</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.8280582896568</v>
+        <v>343.828058289657</v>
       </c>
     </row>
     <row r="24">
@@ -29223,7 +29223,7 @@
         <v>199.4469922899049</v>
       </c>
       <c r="L25" t="n">
-        <v>206.1356836763068</v>
+        <v>206.1356836763067</v>
       </c>
       <c r="M25" t="n">
         <v>211.992984264913</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="C26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="D26" t="n">
         <v>337.8223162596382</v>
       </c>
       <c r="E26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="F26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="G26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="H26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="I26" t="n">
-        <v>343.8280582896569</v>
+        <v>342.7985381307255</v>
       </c>
       <c r="J26" t="n">
-        <v>308.770353952034</v>
+        <v>277.5888009651933</v>
       </c>
       <c r="K26" t="n">
-        <v>343.8280582896569</v>
+        <v>332.7507338100877</v>
       </c>
       <c r="L26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="M26" t="n">
-        <v>343.8280582896569</v>
+        <v>339.9473504157771</v>
       </c>
       <c r="N26" t="n">
-        <v>343.8280582896569</v>
+        <v>341.7336318919928</v>
       </c>
       <c r="O26" t="n">
-        <v>343.8280582896569</v>
+        <v>340.934357999812</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="Q26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="R26" t="n">
-        <v>343.8280582896569</v>
+        <v>338.0326179572588</v>
       </c>
       <c r="S26" t="n">
-        <v>283.4382336441856</v>
+        <v>312.9432253435269</v>
       </c>
       <c r="T26" t="n">
         <v>225.5074303779148</v>
       </c>
       <c r="U26" t="n">
-        <v>248.0272292466047</v>
+        <v>279.2087822334454</v>
       </c>
       <c r="V26" t="n">
-        <v>337.7778509783619</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W26" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
     </row>
     <row r="27">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="C29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="D29" t="n">
-        <v>335.8552053588696</v>
+        <v>337.8223162596382</v>
       </c>
       <c r="E29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="F29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="G29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="H29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="I29" t="n">
-        <v>334.2202531826064</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="J29" t="n">
-        <v>308.770353952034</v>
+        <v>277.5888009651933</v>
       </c>
       <c r="K29" t="n">
-        <v>332.7507338100877</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="L29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="M29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="N29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="O29" t="n">
-        <v>343.8280582896569</v>
+        <v>342.1961741206554</v>
       </c>
       <c r="P29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="Q29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="R29" t="n">
-        <v>338.0326179572588</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="S29" t="n">
         <v>283.4382336441856</v>
       </c>
       <c r="T29" t="n">
-        <v>225.5074303779148</v>
+        <v>256.6889833647555</v>
       </c>
       <c r="U29" t="n">
-        <v>279.2087822334454</v>
+        <v>248.0272292466047</v>
       </c>
       <c r="V29" t="n">
-        <v>308.2281821605244</v>
+        <v>339.4097351473652</v>
       </c>
       <c r="W29" t="n">
-        <v>343.8280582896569</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.8280582896569</v>
+        <v>343.8280582896568</v>
       </c>
     </row>
     <row r="30">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="C32" t="n">
-        <v>344.8172805858484</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D32" t="n">
-        <v>306.6407632727974</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="E32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="F32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="G32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="H32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="I32" t="n">
-        <v>334.2202531826064</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="J32" t="n">
         <v>324.9315162171052</v>
       </c>
       <c r="K32" t="n">
-        <v>344.8172805858484</v>
+        <v>332.7507338100877</v>
       </c>
       <c r="L32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="M32" t="n">
-        <v>344.8172805858484</v>
+        <v>339.9473504157771</v>
       </c>
       <c r="N32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="O32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="P32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="Q32" t="n">
-        <v>340.1120740330047</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="R32" t="n">
-        <v>344.8172805858484</v>
+        <v>338.0326179572588</v>
       </c>
       <c r="S32" t="n">
-        <v>283.4382336441856</v>
+        <v>330.7809488960975</v>
       </c>
       <c r="T32" t="n">
-        <v>272.8501456298267</v>
+        <v>248.6486363230839</v>
       </c>
       <c r="U32" t="n">
-        <v>250.7715414262976</v>
+        <v>248.0272292466047</v>
       </c>
       <c r="V32" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W32" t="n">
-        <v>344.8172805858484</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
       <c r="Y32" t="n">
-        <v>344.8172805858484</v>
+        <v>344.8172805858486</v>
       </c>
     </row>
     <row r="33">
@@ -29986,10 +29986,10 @@
         <v>344.8172805858486</v>
       </c>
       <c r="C35" t="n">
-        <v>344.8172805858486</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D35" t="n">
-        <v>344.029036108606</v>
+        <v>344.0290361086055</v>
       </c>
       <c r="E35" t="n">
         <v>344.8172805858486</v>
@@ -30004,13 +30004,13 @@
         <v>344.8172805858486</v>
       </c>
       <c r="I35" t="n">
-        <v>344.8172805858486</v>
+        <v>334.2202531826064</v>
       </c>
       <c r="J35" t="n">
-        <v>277.5888009651933</v>
+        <v>314.9770738010013</v>
       </c>
       <c r="K35" t="n">
-        <v>344.8172805858486</v>
+        <v>332.7507338100877</v>
       </c>
       <c r="L35" t="n">
         <v>344.8172805858486</v>
@@ -30031,22 +30031,22 @@
         <v>344.8172805858486</v>
       </c>
       <c r="R35" t="n">
-        <v>344.8172805858486</v>
+        <v>338.0326179572588</v>
       </c>
       <c r="S35" t="n">
         <v>283.4382336441856</v>
       </c>
       <c r="T35" t="n">
-        <v>225.5074303779148</v>
+        <v>262.8957032137228</v>
       </c>
       <c r="U35" t="n">
-        <v>285.4155020824132</v>
+        <v>277.2795458970244</v>
       </c>
       <c r="V35" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W35" t="n">
-        <v>331.8551278042898</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X35" t="n">
         <v>344.8172805858486</v>
@@ -30223,10 +30223,10 @@
         <v>344.2079706722016</v>
       </c>
       <c r="C38" t="n">
-        <v>344.2079706722016</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D38" t="n">
-        <v>344.029036108606</v>
+        <v>344.0290361086059</v>
       </c>
       <c r="E38" t="n">
         <v>344.2079706722016</v>
@@ -30244,10 +30244,10 @@
         <v>334.2202531826064</v>
       </c>
       <c r="J38" t="n">
-        <v>277.5888009651933</v>
+        <v>314.9770738010018</v>
       </c>
       <c r="K38" t="n">
-        <v>344.2079706722016</v>
+        <v>332.7507338100877</v>
       </c>
       <c r="L38" t="n">
         <v>344.2079706722016</v>
@@ -30265,19 +30265,19 @@
         <v>344.2079706722016</v>
       </c>
       <c r="Q38" t="n">
+        <v>340.1120740330047</v>
+      </c>
+      <c r="R38" t="n">
         <v>344.2079706722016</v>
-      </c>
-      <c r="R38" t="n">
-        <v>338.0326179572588</v>
       </c>
       <c r="S38" t="n">
         <v>283.4382336441856</v>
       </c>
       <c r="T38" t="n">
-        <v>262.8957032137233</v>
+        <v>260.8654130827684</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2672545655182</v>
+        <v>248.0272292466047</v>
       </c>
       <c r="V38" t="n">
         <v>344.2079706722016</v>
@@ -30368,7 +30368,7 @@
         <v>238.5568750784579</v>
       </c>
       <c r="Y39" t="n">
-        <v>255.9713047452624</v>
+        <v>255.9713047452625</v>
       </c>
     </row>
     <row r="40">
@@ -30420,7 +30420,7 @@
         <v>212.583217849329</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1902567391834</v>
+        <v>213.1902567391833</v>
       </c>
       <c r="Q40" t="n">
         <v>238.8444480189772</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="C41" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="D41" t="n">
-        <v>307.9337095613315</v>
+        <v>337.8223162596381</v>
       </c>
       <c r="E41" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="F41" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="H41" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="I41" t="n">
-        <v>343.8280582896568</v>
+        <v>334.2202531826064</v>
       </c>
       <c r="J41" t="n">
         <v>308.770353952034</v>
@@ -30487,46 +30487,46 @@
         <v>332.7507338100877</v>
       </c>
       <c r="L41" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="M41" t="n">
-        <v>343.8280582896568</v>
+        <v>339.9473504157771</v>
       </c>
       <c r="N41" t="n">
-        <v>337.8748836307257</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="O41" t="n">
-        <v>343.8280582896568</v>
+        <v>340.934357999812</v>
       </c>
       <c r="P41" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="Q41" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="R41" t="n">
-        <v>338.0326179572588</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="S41" t="n">
-        <v>305.698761586244</v>
+        <v>283.4382336441856</v>
       </c>
       <c r="T41" t="n">
-        <v>225.5074303779148</v>
+        <v>226.8787062371714</v>
       </c>
       <c r="U41" t="n">
         <v>279.2087822334454</v>
       </c>
       <c r="V41" t="n">
-        <v>339.4097351473652</v>
+        <v>308.2281821605244</v>
       </c>
       <c r="W41" t="n">
-        <v>317.0122616388729</v>
+        <v>343.8280582896569</v>
       </c>
       <c r="X41" t="n">
         <v>341.4686393609607</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.8280582896568</v>
+        <v>343.8280582896569</v>
       </c>
     </row>
     <row r="42">
@@ -30563,7 +30563,7 @@
         <v>196.2178682873794</v>
       </c>
       <c r="K42" t="n">
-        <v>207.083155502133</v>
+        <v>207.0831555021331</v>
       </c>
       <c r="L42" t="n">
         <v>202.4143841029776</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="C44" t="n">
-        <v>322.4677940726305</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="D44" t="n">
-        <v>337.8223162596396</v>
+        <v>307.9337095613313</v>
       </c>
       <c r="E44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="F44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="G44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="H44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="I44" t="n">
         <v>334.2202531826064</v>
       </c>
       <c r="J44" t="n">
-        <v>308.7703539520355</v>
+        <v>301.9587846407742</v>
       </c>
       <c r="K44" t="n">
-        <v>343.8280582896571</v>
+        <v>332.7507338100877</v>
       </c>
       <c r="L44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="M44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="N44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="O44" t="n">
-        <v>343.8280582896571</v>
+        <v>340.934357999812</v>
       </c>
       <c r="P44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="Q44" t="n">
-        <v>343.8280582896571</v>
+        <v>340.1120740330047</v>
       </c>
       <c r="R44" t="n">
-        <v>338.0326179572588</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="S44" t="n">
-        <v>314.6197866310278</v>
+        <v>314.6197866310263</v>
       </c>
       <c r="T44" t="n">
-        <v>225.5074303779148</v>
+        <v>256.6889833647555</v>
       </c>
       <c r="U44" t="n">
-        <v>279.2087822334469</v>
+        <v>279.2087822334454</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
       </c>
       <c r="W44" t="n">
-        <v>320.9623341395022</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.8280582896571</v>
+        <v>343.8280582896568</v>
       </c>
     </row>
     <row r="45">
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1957117941727795</v>
+        <v>0.1957117941727792</v>
       </c>
       <c r="H17" t="n">
-        <v>2.004333412071978</v>
+        <v>2.004333412071975</v>
       </c>
       <c r="I17" t="n">
-        <v>7.545178944846088</v>
+        <v>7.545178944846076</v>
       </c>
       <c r="J17" t="n">
-        <v>16.61079389067196</v>
+        <v>16.61079389067193</v>
       </c>
       <c r="K17" t="n">
-        <v>24.89527413800571</v>
+        <v>24.89527413800568</v>
       </c>
       <c r="L17" t="n">
-        <v>30.88478895892092</v>
+        <v>30.88478895892088</v>
       </c>
       <c r="M17" t="n">
-        <v>34.36527857854109</v>
+        <v>34.36527857854104</v>
       </c>
       <c r="N17" t="n">
-        <v>34.9213447137345</v>
+        <v>34.92134471373445</v>
       </c>
       <c r="O17" t="n">
-        <v>32.97523556042892</v>
+        <v>32.97523556042887</v>
       </c>
       <c r="P17" t="n">
-        <v>28.14360064178842</v>
+        <v>28.14360064178838</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.13467201297575</v>
+        <v>21.13467201297572</v>
       </c>
       <c r="R17" t="n">
-        <v>12.29388099070587</v>
+        <v>12.29388099070585</v>
       </c>
       <c r="S17" t="n">
-        <v>4.459782509712216</v>
+        <v>4.45978250971221</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8567283789913425</v>
+        <v>0.8567283789913412</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01565694353382235</v>
+        <v>0.01565694353382233</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1047150415708415</v>
+        <v>0.1047150415708413</v>
       </c>
       <c r="H18" t="n">
-        <v>1.011326848855232</v>
+        <v>1.011326848855231</v>
       </c>
       <c r="I18" t="n">
-        <v>3.605320510224147</v>
+        <v>3.605320510224142</v>
       </c>
       <c r="J18" t="n">
-        <v>9.893275045953931</v>
+        <v>9.893275045953917</v>
       </c>
       <c r="K18" t="n">
-        <v>16.90918283120031</v>
+        <v>16.90918283120028</v>
       </c>
       <c r="L18" t="n">
-        <v>22.73648303931801</v>
+        <v>22.73648303931798</v>
       </c>
       <c r="M18" t="n">
-        <v>26.53240329626101</v>
+        <v>26.53240329626097</v>
       </c>
       <c r="N18" t="n">
-        <v>27.23463706188302</v>
+        <v>27.23463706188298</v>
       </c>
       <c r="O18" t="n">
-        <v>24.91437219339227</v>
+        <v>24.91437219339223</v>
       </c>
       <c r="P18" t="n">
-        <v>19.99598017504955</v>
+        <v>19.99598017504951</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.36678320121829</v>
+        <v>13.36678320121827</v>
       </c>
       <c r="R18" t="n">
-        <v>6.501518107354528</v>
+        <v>6.501518107354518</v>
       </c>
       <c r="S18" t="n">
-        <v>1.945035969528567</v>
+        <v>1.945035969528564</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4220751017701898</v>
+        <v>0.4220751017701892</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006889147471765888</v>
+        <v>0.006889147471765879</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08778957324676527</v>
+        <v>0.08778957324676513</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7805291148666954</v>
+        <v>0.7805291148666943</v>
       </c>
       <c r="I19" t="n">
-        <v>2.640071893639087</v>
+        <v>2.640071893639083</v>
       </c>
       <c r="J19" t="n">
-        <v>6.206722828546304</v>
+        <v>6.206722828546295</v>
       </c>
       <c r="K19" t="n">
-        <v>10.19955223721509</v>
+        <v>10.19955223721507</v>
       </c>
       <c r="L19" t="n">
-        <v>13.05191528070545</v>
+        <v>13.05191528070543</v>
       </c>
       <c r="M19" t="n">
-        <v>13.76141464994521</v>
+        <v>13.76141464994519</v>
       </c>
       <c r="N19" t="n">
-        <v>13.43419896784364</v>
+        <v>13.43419896784362</v>
       </c>
       <c r="O19" t="n">
-        <v>12.40865713491552</v>
+        <v>12.4086571349155</v>
       </c>
       <c r="P19" t="n">
-        <v>10.6177498406815</v>
+        <v>10.61774984068148</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.351179628872318</v>
+        <v>7.351179628872307</v>
       </c>
       <c r="R19" t="n">
-        <v>3.947338447986372</v>
+        <v>3.947338447986366</v>
       </c>
       <c r="S19" t="n">
-        <v>1.529932835582263</v>
+        <v>1.529932835582261</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3751009038725424</v>
+        <v>0.3751009038725419</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004788522177096292</v>
+        <v>0.004788522177096285</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34132,34 +34132,34 @@
         <v>16.61079389067196</v>
       </c>
       <c r="K41" t="n">
-        <v>24.89527413800572</v>
+        <v>24.89527413800571</v>
       </c>
       <c r="L41" t="n">
-        <v>30.88478895892093</v>
+        <v>30.88478895892092</v>
       </c>
       <c r="M41" t="n">
         <v>34.36527857854109</v>
       </c>
       <c r="N41" t="n">
-        <v>34.92134471373451</v>
+        <v>34.9213447137345</v>
       </c>
       <c r="O41" t="n">
-        <v>32.97523556042893</v>
+        <v>32.97523556042892</v>
       </c>
       <c r="P41" t="n">
-        <v>28.14360064178843</v>
+        <v>28.14360064178842</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.13467201297576</v>
+        <v>21.13467201297575</v>
       </c>
       <c r="R41" t="n">
         <v>12.29388099070587</v>
       </c>
       <c r="S41" t="n">
-        <v>4.459782509712217</v>
+        <v>4.459782509712216</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8567283789913426</v>
+        <v>0.8567283789913425</v>
       </c>
       <c r="U41" t="n">
         <v>0.01565694353382235</v>
@@ -34205,19 +34205,19 @@
         <v>1.011326848855232</v>
       </c>
       <c r="I42" t="n">
-        <v>3.605320510224148</v>
+        <v>3.605320510224147</v>
       </c>
       <c r="J42" t="n">
-        <v>9.893275045953933</v>
+        <v>9.893275045953931</v>
       </c>
       <c r="K42" t="n">
         <v>16.90918283120031</v>
       </c>
       <c r="L42" t="n">
-        <v>22.73648303931802</v>
+        <v>22.73648303931801</v>
       </c>
       <c r="M42" t="n">
-        <v>26.53240329626102</v>
+        <v>26.53240329626101</v>
       </c>
       <c r="N42" t="n">
         <v>27.23463706188302</v>
@@ -34232,16 +34232,16 @@
         <v>13.36678320121829</v>
       </c>
       <c r="R42" t="n">
-        <v>6.501518107354529</v>
+        <v>6.501518107354528</v>
       </c>
       <c r="S42" t="n">
         <v>1.945035969528567</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4220751017701899</v>
+        <v>0.4220751017701898</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006889147471765889</v>
+        <v>0.006889147471765888</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.08778957324676528</v>
+        <v>0.08778957324676527</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7805291148666955</v>
+        <v>0.7805291148666954</v>
       </c>
       <c r="I43" t="n">
         <v>2.640071893639087</v>
       </c>
       <c r="J43" t="n">
-        <v>6.206722828546305</v>
+        <v>6.206722828546304</v>
       </c>
       <c r="K43" t="n">
         <v>10.19955223721509</v>
@@ -34299,7 +34299,7 @@
         <v>13.76141464994521</v>
       </c>
       <c r="N43" t="n">
-        <v>13.43419896784365</v>
+        <v>13.43419896784364</v>
       </c>
       <c r="O43" t="n">
         <v>12.40865713491552</v>
@@ -34308,7 +34308,7 @@
         <v>10.6177498406815</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.351179628872319</v>
+        <v>7.351179628872318</v>
       </c>
       <c r="R43" t="n">
         <v>3.947338447986372</v>
@@ -34317,10 +34317,10 @@
         <v>1.529932835582263</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3751009038725425</v>
+        <v>0.3751009038725424</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004788522177096293</v>
+        <v>0.004788522177096292</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35386,10 +35386,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="D11" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -35404,13 +35404,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.565756589263913</v>
+        <v>6.565756589263856</v>
       </c>
       <c r="J11" t="n">
-        <v>9.954442416103369</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>8.035275961782588</v>
+        <v>8.035275961782514</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.911126141144535</v>
+        <v>2.91112614114445</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35428,25 +35428,25 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6739357388655662</v>
+        <v>0.6739357388655094</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.753391814611405</v>
       </c>
       <c r="S11" t="n">
-        <v>8.636629194129227</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103916</v>
       </c>
       <c r="W11" t="n">
-        <v>9.954442416103369</v>
+        <v>5.88323737952004</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35623,10 +35623,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="D14" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -35641,19 +35641,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.565756589263742</v>
+        <v>6.565756589263856</v>
       </c>
       <c r="J14" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="K14" t="n">
-        <v>8.0352759617824</v>
+        <v>8.035275961782514</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8386593560930464</v>
+        <v>0.8386593560931601</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35665,25 +35665,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.6739357388655094</v>
       </c>
       <c r="R14" t="n">
-        <v>2.753391814611291</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="T14" t="n">
-        <v>8.629639903435937</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.7546535630781601</v>
       </c>
       <c r="V14" t="n">
-        <v>9.954442416103369</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.954442416103369</v>
+        <v>9.954442416103468</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>16.16116226507114</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>9.257737390460306</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.061120784770992</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35908,19 +35908,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>16.16116226507114</v>
       </c>
       <c r="T17" t="n">
-        <v>5.647782308439397</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>16.16116226507114</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>16.16116226507114</v>
       </c>
       <c r="W17" t="n">
-        <v>16.16116226507114</v>
+        <v>14.61232796782116</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -36097,10 +36097,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>12.73163398341524</v>
+        <v>16.16116226507108</v>
       </c>
       <c r="D20" t="n">
-        <v>16.16116226507031</v>
+        <v>16.16116226507108</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -36115,13 +36115,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.788218017941688</v>
       </c>
       <c r="J20" t="n">
-        <v>16.16116226507031</v>
+        <v>16.16116226507108</v>
       </c>
       <c r="K20" t="n">
-        <v>9.25773739046025</v>
+        <v>9.257737390460363</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.074113200735951</v>
+        <v>1.074113200736058</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,25 +36142,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.975853243289123</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.189417276667066</v>
+        <v>9.568854645839918</v>
       </c>
       <c r="U20" t="n">
-        <v>16.16116226507031</v>
+        <v>16.16116226507108</v>
       </c>
       <c r="V20" t="n">
-        <v>16.16116226507031</v>
+        <v>16.16116226507108</v>
       </c>
       <c r="W20" t="n">
-        <v>16.16116226507031</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>0.5398318395873503</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -36334,7 +36334,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>21.36026421702638</v>
+        <v>21.36026421702655</v>
       </c>
       <c r="D23" t="n">
         <v>31.18155298684076</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9.607805107050467</v>
+        <v>9.607805107050638</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>11.0773244795693</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,16 +36367,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.953174658931232</v>
       </c>
       <c r="O23" t="n">
-        <v>2.893700289844844</v>
+        <v>2.893700289845015</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.715984256652145</v>
+        <v>3.715984256652316</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36391,13 +36391,13 @@
         <v>31.18155298684076</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>8.044264037277173</v>
       </c>
       <c r="W23" t="n">
-        <v>25.0747631757763</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>2.35941892869613</v>
+        <v>2.3594189286963</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -36571,7 +36571,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>21.36026421702644</v>
+        <v>21.36026421702638</v>
       </c>
       <c r="D26" t="n">
         <v>31.18155298684076</v>
@@ -36589,52 +36589,52 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>9.607805107050524</v>
+        <v>8.578284948119101</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.858748261266996</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.715984256652121</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>29.50499169934135</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>31.18155298684076</v>
       </c>
-      <c r="K26" t="n">
-        <v>11.0773244795692</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3.880707873879828</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5.953174658931118</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2.893700289844901</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3.715984256652177</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5.795440332398069</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
-        <v>29.54966881783753</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>26.81579665078391</v>
       </c>
       <c r="X26" t="n">
-        <v>2.359418928696186</v>
+        <v>2.35941892869613</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -36808,10 +36808,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>21.36026421702644</v>
+        <v>21.36026421702638</v>
       </c>
       <c r="D29" t="n">
-        <v>29.21444208607215</v>
+        <v>31.18155298684076</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -36826,52 +36826,52 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.607805107050467</v>
       </c>
       <c r="J29" t="n">
-        <v>31.1815529868407</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>11.07732447956912</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3.880707873879828</v>
+        <v>3.880707873879771</v>
       </c>
       <c r="N29" t="n">
-        <v>5.953174658931118</v>
+        <v>5.953174658931061</v>
       </c>
       <c r="O29" t="n">
-        <v>2.893700289844901</v>
+        <v>1.261816120843389</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.715984256652202</v>
+        <v>3.715984256652121</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>5.795440332398012</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>31.18155298684076</v>
       </c>
       <c r="U29" t="n">
-        <v>31.1815529868407</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>31.18155298684076</v>
       </c>
       <c r="W29" t="n">
-        <v>26.81579665078397</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>2.359418928696186</v>
+        <v>2.35941892869613</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -37045,10 +37045,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>22.34948651321798</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>38.17651731305114</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -37063,52 +37063,52 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>10.59702740324218</v>
       </c>
       <c r="J32" t="n">
-        <v>47.3427152519119</v>
+        <v>47.34271525191195</v>
       </c>
       <c r="K32" t="n">
-        <v>12.06654677576074</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.86993017007137</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>6.942396955122661</v>
+        <v>6.942396955122774</v>
       </c>
       <c r="O32" t="n">
-        <v>3.882922586036443</v>
+        <v>3.882922586036557</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4.705206552843833</v>
       </c>
       <c r="R32" t="n">
-        <v>6.784662628589611</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>47.34271525191195</v>
       </c>
       <c r="T32" t="n">
-        <v>47.3427152519119</v>
+        <v>23.14120594516911</v>
       </c>
       <c r="U32" t="n">
-        <v>2.744312179692879</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>27.80501894697551</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>3.348641224887729</v>
+        <v>3.348641224887842</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -37282,10 +37282,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>22.3494865132181</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>37.38827283580853</v>
+        <v>37.38827283580804</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10.59702740324217</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>37.38827283580804</v>
       </c>
       <c r="K35" t="n">
-        <v>12.06654677576084</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37327,22 +37327,22 @@
         <v>4.705206552843858</v>
       </c>
       <c r="R35" t="n">
-        <v>6.784662628589725</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>37.38827283580804</v>
       </c>
       <c r="U35" t="n">
-        <v>37.38827283580853</v>
+        <v>29.25231665041966</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>14.84286616541688</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>3.348641224887842</v>
@@ -37519,10 +37519,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>21.7401765995711</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>37.38827283580853</v>
+        <v>37.38827283580849</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>37.38827283580849</v>
       </c>
       <c r="K38" t="n">
-        <v>11.45723686211386</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37561,19 +37561,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.095896639196862</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>6.175352714942733</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>37.38827283580853</v>
+        <v>35.35798270485368</v>
       </c>
       <c r="U38" t="n">
-        <v>4.240025318913481</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>35.97978851167716</v>
@@ -37756,10 +37756,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>21.36026421702638</v>
+        <v>21.36026421702644</v>
       </c>
       <c r="D41" t="n">
-        <v>1.29294628853404</v>
+        <v>31.1815529868407</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.607805107050467</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>31.18155298684076</v>
+        <v>31.1815529868407</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>3.880707873879771</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>5.953174658931118</v>
       </c>
       <c r="O41" t="n">
-        <v>2.893700289844844</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37801,22 +37801,22 @@
         <v>3.715984256652177</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.795440332398073</v>
       </c>
       <c r="S41" t="n">
-        <v>22.26052794205838</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.371275859256607</v>
       </c>
       <c r="U41" t="n">
-        <v>31.18155298684076</v>
+        <v>31.1815529868407</v>
       </c>
       <c r="V41" t="n">
-        <v>31.18155298684076</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>26.81579665078397</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -37993,10 +37993,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>21.36026421702638</v>
       </c>
       <c r="D44" t="n">
-        <v>31.1815529868422</v>
+        <v>1.292946288533926</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -38014,49 +38014,49 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>31.1815529868422</v>
+        <v>24.3699836755809</v>
       </c>
       <c r="K44" t="n">
-        <v>11.07732447956937</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.880707873879999</v>
+        <v>3.880707873879771</v>
       </c>
       <c r="N44" t="n">
-        <v>5.953174658931289</v>
+        <v>5.953174658931061</v>
       </c>
       <c r="O44" t="n">
-        <v>2.893700289845071</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.715984256652373</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.795440332398012</v>
       </c>
       <c r="S44" t="n">
-        <v>31.1815529868422</v>
+        <v>31.1815529868407</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>31.1815529868407</v>
       </c>
       <c r="U44" t="n">
-        <v>31.1815529868422</v>
+        <v>31.1815529868407</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>3.950072500629233</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2.359418928696357</v>
+        <v>2.35941892869613</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
